--- a/Тест-кейсы к курсововй.xlsx
+++ b/Тест-кейсы к курсововй.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
   <si>
     <t>Провалено</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>Регистрация</t>
@@ -705,12 +702,15 @@
   <si>
     <t>Заказ размещен</t>
   </si>
+  <si>
+    <t>ОШИБКА</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,8 +795,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1098,6 +1111,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,65 +1183,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1484,120 +1509,125 @@
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="73.5546875" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="19" t="s">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21">
+      <c r="I1" s="14"/>
+      <c r="J1" s="15">
+        <v>5</v>
+      </c>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="19" t="s">
-        <v>1</v>
-      </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="22"/>
+      <c r="J2" s="17">
+        <v>50</v>
+      </c>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="19" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="39">
+        <v>44562</v>
+      </c>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="19" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="40">
+        <v>44686</v>
+      </c>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="24" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1607,16 +1637,16 @@
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="J7" s="23"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1626,13 +1656,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8">
@@ -1642,26 +1672,26 @@
       <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="8">
@@ -1669,1190 +1699,1282 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+        <v>18</v>
+      </c>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
         <v>3</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+      <c r="J11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="8">
         <v>3</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26">
+      <c r="J13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="357" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="357" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+      <c r="J15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" ht="370.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
+      <c r="J17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8">
         <v>3</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" ht="383.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+      <c r="J18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26">
+      <c r="J19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="8">
         <v>1</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26">
+      <c r="J21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26">
+      <c r="J22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20">
         <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="8">
         <v>2</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26">
+      <c r="J23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20">
         <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="8">
         <v>2</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26">
+      <c r="J24" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20">
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="8">
         <v>2</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26">
+      <c r="J25" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20">
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="8">
         <v>2</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26">
+      <c r="J26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="8">
         <v>2</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26">
+      <c r="J27" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20">
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="26">
+      <c r="J28" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="8">
         <v>1</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26">
+      <c r="J29" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20">
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="8">
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26">
+      <c r="J30" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20">
         <v>24</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="8">
         <v>1</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26">
+      <c r="J31" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="8">
         <v>3</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26">
+      <c r="J32" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20">
         <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="8">
         <v>2</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26">
+      <c r="J33" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20">
         <v>27</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="8">
         <v>3</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="26">
+      <c r="J34" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20">
         <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="8">
         <v>3</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="26">
+      <c r="J35" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20">
         <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="8">
         <v>3</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="26">
+      <c r="J36" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20">
         <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
         <v>3</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="26">
+      <c r="J37" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20">
         <v>31</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="8">
         <v>3</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26">
+      <c r="J38" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20">
         <v>32</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="8">
         <v>3</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" ht="291" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26">
+      <c r="J39" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20">
         <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="8">
         <v>3</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26">
+      <c r="J40" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20">
         <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
         <v>1</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" ht="383.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="26">
+      <c r="J41" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20">
         <v>35</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="8">
         <v>1</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" ht="251.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26">
+      <c r="J42" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20">
         <v>36</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="8">
         <v>1</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="1:11" ht="383.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="26">
+      <c r="J43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20">
         <v>37</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="8">
         <v>1</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" ht="343.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="26">
+      <c r="J44" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20">
         <v>38</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="8">
         <v>1</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" ht="330.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26">
+      <c r="J45" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20">
         <v>39</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="8">
         <v>2</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="1:11" ht="343.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="26">
+      <c r="J46" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20">
         <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="8">
         <v>2</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" ht="343.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26">
+      <c r="J47" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20">
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8">
         <v>2</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="26">
+      <c r="J48" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20">
         <v>42</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="8">
         <v>2</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" ht="370.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26">
+      <c r="J49" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20">
         <v>43</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="8">
         <v>1</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="26">
+      <c r="J50" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20">
         <v>44</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="8">
         <v>1</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="22"/>
-    </row>
-    <row r="52" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26">
+      <c r="J51" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20">
         <v>45</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="8">
         <v>1</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="26">
+      <c r="J52" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20">
         <v>46</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="8">
         <v>1</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="26">
+      <c r="J53" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20">
         <v>47</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="8">
         <v>1</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="22"/>
-    </row>
-    <row r="55" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="26">
+      <c r="J54" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20">
         <v>48</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="8">
         <v>1</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="22"/>
+      <c r="J55" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" s="16"/>
     </row>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="26">
+      <c r="A56" s="20">
         <v>49</v>
       </c>
       <c r="B56" s="1"/>
@@ -2864,10 +2986,10 @@
       <c r="H56" s="7"/>
       <c r="I56" s="2"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="22"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26">
+      <c r="A57" s="20">
         <v>43</v>
       </c>
       <c r="B57" s="1"/>
@@ -2879,10 +3001,10 @@
       <c r="H57" s="7"/>
       <c r="I57" s="2"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="22"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26">
+      <c r="A58" s="20">
         <v>44</v>
       </c>
       <c r="B58" s="1"/>
@@ -2894,10 +3016,10 @@
       <c r="H58" s="7"/>
       <c r="I58" s="2"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="22"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="26">
+      <c r="A59" s="20">
         <v>45</v>
       </c>
       <c r="B59" s="1"/>
@@ -2909,10 +3031,10 @@
       <c r="H59" s="7"/>
       <c r="I59" s="2"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="22"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="26">
+      <c r="A60" s="20">
         <v>46</v>
       </c>
       <c r="B60" s="1"/>
@@ -2924,10 +3046,10 @@
       <c r="H60" s="7"/>
       <c r="I60" s="2"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="22"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="26">
+      <c r="A61" s="20">
         <v>47</v>
       </c>
       <c r="B61" s="1"/>
@@ -2939,10 +3061,10 @@
       <c r="H61" s="7"/>
       <c r="I61" s="2"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="22"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26">
+      <c r="A62" s="20">
         <v>48</v>
       </c>
       <c r="B62" s="1"/>
@@ -2954,10 +3076,10 @@
       <c r="H62" s="7"/>
       <c r="I62" s="2"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="22"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="26">
+      <c r="A63" s="20">
         <v>49</v>
       </c>
       <c r="B63" s="1"/>
@@ -2969,10 +3091,10 @@
       <c r="H63" s="7"/>
       <c r="I63" s="2"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="22"/>
+      <c r="K63" s="16"/>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="26">
+      <c r="A64" s="20">
         <v>50</v>
       </c>
       <c r="B64" s="1"/>
@@ -2984,10 +3106,10 @@
       <c r="H64" s="7"/>
       <c r="I64" s="2"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="22"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="26">
+      <c r="A65" s="20">
         <v>51</v>
       </c>
       <c r="B65" s="1"/>
@@ -2999,16 +3121,16 @@
       <c r="H65" s="7"/>
       <c r="I65" s="2"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="22"/>
-    </row>
-    <row r="66" spans="1:11" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="27">
+      <c r="E66" s="21">
         <v>48</v>
       </c>
       <c r="F66" s="10"/>
@@ -3016,7 +3138,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
-      <c r="K66" s="22"/>
+      <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
@@ -3029,7 +3151,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="22"/>
+      <c r="K67" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
